--- a/hardware/V0.0.3/bom/bom_bl49sp_V0.0.3.xlsx
+++ b/hardware/V0.0.3/bom/bom_bl49sp_V0.0.3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="137">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -136,13 +136,16 @@
     <t xml:space="preserve">0805_C</t>
   </si>
   <si>
-    <t xml:space="preserve">CL21A226MAQNNNE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">22uF ±20% 25V X5R 0805 Multilayer Ceramic Capacitors MLCC – SMD/SMT</t>
+    <t xml:space="preserve">C3216X5R1V226MTJ00E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22UF ±20% 35V X5R 1206 MULTILAYER CERAMIC CAPACITORS MLCC </t>
   </si>
   <si>
     <t xml:space="preserve">C6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1206_C</t>
   </si>
   <si>
     <t xml:space="preserve">0603B222K500NT </t>
@@ -569,15 +572,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="71.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.84"/>
@@ -749,18 +752,18 @@
         <v>40</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>11</v>
@@ -768,13 +771,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>7</v>
@@ -782,13 +785,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>7</v>
@@ -796,13 +799,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>11</v>
@@ -810,13 +813,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>7</v>
@@ -824,13 +827,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>7</v>
@@ -838,13 +841,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>7</v>
@@ -852,13 +855,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>7</v>
@@ -866,13 +869,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>7</v>
@@ -880,13 +883,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>7</v>
@@ -894,13 +897,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>7</v>
@@ -908,13 +911,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>7</v>
@@ -922,13 +925,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>18</v>
@@ -936,212 +939,217 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
